--- a/src/test/java/gfl/testData/ProspectAll.xlsx
+++ b/src/test/java/gfl/testData/ProspectAll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>CustomerName</t>
   </si>
@@ -90,15 +90,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>GTA HAULING (HIT)</t>
-  </si>
-  <si>
-    <t>AutoCustNFYOo_2104515</t>
-  </si>
-  <si>
-    <t>arvJqsHuoR</t>
-  </si>
-  <si>
     <t>ServiceZone</t>
   </si>
   <si>
@@ -118,12 +109,28 @@
   </si>
   <si>
     <t>Scotia Recycle</t>
+  </si>
+  <si>
+    <t>Halifax (HIT)</t>
+  </si>
+  <si>
+    <t>AutoCusthIjcs_2104158</t>
+  </si>
+  <si>
+    <t>bWjtKaqaNz</t>
+  </si>
+  <si>
+    <t>AutoCustHLxAl_2104127</t>
+  </si>
+  <si>
+    <t>NuPdlidwGG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -478,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,37 +495,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="6.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -568,13 +575,13 @@
         <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -593,13 +600,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>12</v>
@@ -623,7 +630,7 @@
         <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -632,13 +639,13 @@
         <v>22</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S2" s="3"/>
       <c r="V2" s="3"/>

--- a/src/test/java/gfl/testData/ProspectAll.xlsx
+++ b/src/test/java/gfl/testData/ProspectAll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>CustomerName</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Location Type</t>
   </si>
   <si>
-    <t>Open Type</t>
-  </si>
-  <si>
-    <t>10 yrd</t>
-  </si>
-  <si>
     <t>Weekly</t>
   </si>
   <si>
@@ -114,16 +108,34 @@
     <t>Halifax (HIT)</t>
   </si>
   <si>
-    <t>AutoCusthIjcs_2104158</t>
-  </si>
-  <si>
-    <t>bWjtKaqaNz</t>
-  </si>
-  <si>
-    <t>AutoCustHLxAl_2104127</t>
-  </si>
-  <si>
-    <t>NuPdlidwGG</t>
+    <t>FL Loose</t>
+  </si>
+  <si>
+    <t>AutoCustLQDSk_2204605</t>
+  </si>
+  <si>
+    <t>QyWJKUjtGQ</t>
+  </si>
+  <si>
+    <t>2 yrd</t>
+  </si>
+  <si>
+    <t>AutoCustXkTem_2204209</t>
+  </si>
+  <si>
+    <t>WShJctVOYF</t>
+  </si>
+  <si>
+    <t>AutoCustNiIHo_2204449</t>
+  </si>
+  <si>
+    <t>LHQmsQJlYO</t>
+  </si>
+  <si>
+    <t>AutoCustEulnd_2204635</t>
+  </si>
+  <si>
+    <t>tOTCHorDlU</t>
   </si>
 </sst>
 </file>
@@ -496,7 +508,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -575,13 +587,13 @@
         <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -600,52 +612,52 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N2">
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
       </c>
       <c r="S2" s="3"/>
       <c r="V2" s="3"/>

--- a/src/test/java/gfl/testData/ProspectAll.xlsx
+++ b/src/test/java/gfl/testData/ProspectAll.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>CustomerName</t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t>tOTCHorDlU</t>
+  </si>
+  <si>
+    <t>AutoCustSbpsS_2304262</t>
+  </si>
+  <si>
+    <t>KngdyLTqEG</t>
+  </si>
+  <si>
+    <t>AutoCustTcTiq_2304633</t>
+  </si>
+  <si>
+    <t>ZpXmjOLJON</t>
+  </si>
+  <si>
+    <t>AutoCustuCcFE_2304565</t>
+  </si>
+  <si>
+    <t>uvvLaPEsDz</t>
   </si>
 </sst>
 </file>
@@ -612,10 +630,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>28</v>
